--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H2">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J2">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>690.3650297459735</v>
+        <v>2881.757170111459</v>
       </c>
       <c r="R2">
-        <v>6213.285267713761</v>
+        <v>25935.81453100313</v>
       </c>
       <c r="S2">
-        <v>0.4890122269931717</v>
+        <v>0.6016228807848414</v>
       </c>
       <c r="T2">
-        <v>0.4890122269931716</v>
+        <v>0.6016228807848414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>146.901596</v>
+        <v>227.282303</v>
       </c>
       <c r="H3">
-        <v>440.704788</v>
+        <v>681.846909</v>
       </c>
       <c r="I3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130797</v>
       </c>
       <c r="J3">
-        <v>0.5061978858527532</v>
+        <v>0.6094595465130795</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>24.26192482496933</v>
+        <v>37.53741483810633</v>
       </c>
       <c r="R3">
-        <v>218.357323424724</v>
+        <v>337.836733542957</v>
       </c>
       <c r="S3">
-        <v>0.01718565885958155</v>
+        <v>0.007836665728238205</v>
       </c>
       <c r="T3">
-        <v>0.01718565885958155</v>
+        <v>0.007836665728238204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>416.972748</v>
       </c>
       <c r="I4">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J4">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>653.1887363481068</v>
+        <v>1762.293251504758</v>
       </c>
       <c r="R4">
-        <v>5878.69862713296</v>
+        <v>15860.63926354282</v>
       </c>
       <c r="S4">
-        <v>0.4626788218487486</v>
+        <v>0.3679130059098527</v>
       </c>
       <c r="T4">
-        <v>0.4626788218487486</v>
+        <v>0.3679130059098526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>416.972748</v>
       </c>
       <c r="I5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221387</v>
       </c>
       <c r="J5">
-        <v>0.4789390295796214</v>
+        <v>0.3727053955221385</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
-        <v>22.95541537442266</v>
+        <v>22.95541537442267</v>
       </c>
       <c r="R5">
         <v>206.598738369804</v>
       </c>
       <c r="S5">
-        <v>0.01626020773087281</v>
+        <v>0.004792389612285983</v>
       </c>
       <c r="T5">
-        <v>0.01626020773087281</v>
+        <v>0.004792389612285982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.149135333333333</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H6">
-        <v>12.447406</v>
+        <v>19.133444</v>
       </c>
       <c r="I6">
-        <v>0.01429721385634429</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J6">
-        <v>0.01429721385634429</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>19.49888915990222</v>
+        <v>80.86557071409422</v>
       </c>
       <c r="R6">
-        <v>175.49000243912</v>
+        <v>727.790136426848</v>
       </c>
       <c r="S6">
-        <v>0.01381181664935341</v>
+        <v>0.01688226132094329</v>
       </c>
       <c r="T6">
-        <v>0.01381181664935341</v>
+        <v>0.01688226132094329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.149135333333333</v>
+        <v>6.377814666666666</v>
       </c>
       <c r="H7">
-        <v>12.447406</v>
+        <v>19.133444</v>
       </c>
       <c r="I7">
-        <v>0.01429721385634429</v>
+        <v>0.0171021675827138</v>
       </c>
       <c r="J7">
-        <v>0.01429721385634429</v>
+        <v>0.01710216758271379</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>0.6852615103375553</v>
+        <v>1.053344988779111</v>
       </c>
       <c r="R7">
-        <v>6.167353593037999</v>
+        <v>9.480104899011998</v>
       </c>
       <c r="S7">
-        <v>0.0004853972069908813</v>
+        <v>0.0002199062617705068</v>
       </c>
       <c r="T7">
-        <v>0.0004853972069908814</v>
+        <v>0.0002199062617705067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.164219</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H8">
-        <v>0.492657</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005658707112811304</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J8">
-        <v>0.0005658707112811305</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>0.7717482852933333</v>
+        <v>3.465385234366222</v>
       </c>
       <c r="R8">
-        <v>6.94573456764</v>
+        <v>31.188467109296</v>
       </c>
       <c r="S8">
-        <v>0.000546659131631161</v>
+        <v>0.0007234665950871991</v>
       </c>
       <c r="T8">
-        <v>0.0005466591316311611</v>
+        <v>0.0007234665950871991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.164219</v>
+        <v>0.2733126666666666</v>
       </c>
       <c r="H9">
-        <v>0.492657</v>
+        <v>0.8199379999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005658707112811304</v>
+        <v>0.0007328903820679218</v>
       </c>
       <c r="J9">
-        <v>0.0005658707112811305</v>
+        <v>0.0007328903820679217</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>0.02712202686233333</v>
+        <v>0.04513968229711111</v>
       </c>
       <c r="R9">
-        <v>0.244098241761</v>
+        <v>0.406257140674</v>
       </c>
       <c r="S9">
-        <v>1.921157964996937E-05</v>
+        <v>9.423786980722644E-06</v>
       </c>
       <c r="T9">
-        <v>1.921157964996937E-05</v>
+        <v>9.423786980722644E-06</v>
       </c>
     </row>
   </sheetData>
